--- a/results/I3_N5_M3_T30_C200_DepCentral_s3_P3_res.xlsx
+++ b/results/I3_N5_M3_T30_C200_DepCentral_s3_P3_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>442.5999908091991</v>
+        <v>1073.49013953524</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0149998664855957</v>
+        <v>0.003999948501586914</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>25.08999080920084</v>
+        <v>19.85485207586932</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.612049279841015</v>
+        <v>11.43422928288365</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.612049279841015</v>
+        <v>5.06951674225463</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>167.8699999999982</v>
+        <v>750</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>249.64</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -733,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -744,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -835,7 +835,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -846,7 +846,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -857,7 +857,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -868,7 +868,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -879,7 +879,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -929,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>13.10555953090583</v>
+        <v>15.79579898937523</v>
       </c>
     </row>
     <row r="4">
@@ -937,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>12.69023945846941</v>
       </c>
     </row>
     <row r="5">
@@ -945,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>26.38795072015897</v>
+        <v>23.61797899241786</v>
       </c>
     </row>
     <row r="6">
@@ -953,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -961,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2.943331445828008</v>
+        <v>10.33301651610693</v>
       </c>
     </row>
     <row r="8">
@@ -969,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>22.62482380361045</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -977,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -985,7 +985,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -999,7 +999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,10 +1031,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1045,10 +1045,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1059,10 +1059,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1073,10 +1073,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1087,15 +1087,85 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="n">
+        <v>8</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,7 +1268,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>168.8700000000001</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8">
@@ -1209,7 +1279,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>176.2299999999996</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9">
@@ -1220,7 +1290,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>169.55</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10">
@@ -1231,7 +1301,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>181.7</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11">
@@ -1242,7 +1312,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>181.425</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12">
@@ -1253,7 +1323,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>114.8600000000005</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13">
@@ -1264,7 +1334,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>122.43</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14">
@@ -1275,7 +1345,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>112.7550000000005</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15">
@@ -1286,7 +1356,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>128.4300000000004</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16">
@@ -1297,7 +1367,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>126.25</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17">
@@ -1308,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>214.47</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18">
@@ -1319,7 +1389,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>214.9549999999995</v>
+        <v>293</v>
       </c>
     </row>
     <row r="19">
@@ -1330,7 +1400,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>211.945</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20">
@@ -1341,7 +1411,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>219.8749999999999</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21">
@@ -1352,7 +1422,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>222.6899999999999</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22">
@@ -1363,7 +1433,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>67.32000000000029</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23">
@@ -1374,7 +1444,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>76.2050000000003</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24">
@@ -1385,7 +1455,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>81.1900000000003</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25">
@@ -1396,7 +1466,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>70.59000000000029</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26">
@@ -1407,7 +1477,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>74.58500000000029</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27">
@@ -1418,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>36.35</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28">
@@ -1429,7 +1499,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>32.46500000000073</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29">
@@ -1440,7 +1510,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>34.61000000000072</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30">
@@ -1451,7 +1521,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>41.73500000000072</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31">
@@ -1462,7 +1532,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>43.29500000000073</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32">
@@ -1473,7 +1543,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>67.32000000000029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1484,7 +1554,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>76.2050000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1495,7 +1565,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>81.1900000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1506,7 +1576,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>70.59000000000029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1517,7 +1587,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>74.58500000000029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1528,7 +1598,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>214.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1539,7 +1609,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>214.9549999999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1550,7 +1620,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>211.945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1561,7 +1631,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>219.8749999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,7 +1642,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>222.6899999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1583,7 +1653,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>264</v>
       </c>
     </row>
     <row r="43">
@@ -1594,7 +1664,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>293</v>
       </c>
     </row>
     <row r="44">
@@ -1605,7 +1675,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>273</v>
       </c>
     </row>
     <row r="45">
@@ -1616,7 +1686,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>276</v>
       </c>
     </row>
     <row r="46">
@@ -1627,7 +1697,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -1729,7 +1799,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>14.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1740,7 +1810,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>14.95499999999934</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1751,7 +1821,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>11.945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1762,7 +1832,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>19.87499999999989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1773,7 +1843,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>22.68999999999986</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1784,7 +1854,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13">
@@ -1795,7 +1865,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14">
@@ -1806,7 +1876,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15">
@@ -1817,7 +1887,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16">
@@ -1828,7 +1898,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1875,7 +1945,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>11.71</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1886,7 +1956,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>5.64</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1897,7 +1967,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>12.58</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1908,7 +1978,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>10.91</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1919,7 +1989,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>8.01</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1930,7 +2000,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>7.18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1941,7 +2011,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>6.895</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1952,7 +2022,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>2.985</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1963,7 +2033,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>3.18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1974,7 +2044,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>3.585</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -2040,7 +2110,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -2051,7 +2121,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -2062,7 +2132,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -2073,7 +2143,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -2084,7 +2154,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -2095,7 +2165,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>9.625</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -2106,7 +2176,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>12.98</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -2117,7 +2187,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>7.75</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -2128,7 +2198,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>13.585</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -2139,7 +2209,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>8.205</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2153,7 +2223,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2180,7 +2250,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2191,7 +2261,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2202,7 +2272,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2213,7 +2283,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2224,12 +2294,67 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
